--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92373.95866983951</v>
+        <v>17018627.02800918</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92373.95866983951</v>
+        <v>17018627.02800918</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47490.38732099951</v>
+        <v>6036916.736389748</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47490.38732099951</v>
+        <v>6036916.736389748</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494589810.59794</v>
+        <v>54568993.7508175</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11978.6408527984</v>
+        <v>1222367.037178916</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23148.30908359152</v>
+        <v>2320696.498876895</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34317.97731438413</v>
+        <v>3419025.96057495</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46085.42538344975</v>
+        <v>4434374.219641934</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57255.09361424233</v>
+        <v>5532703.681339994</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68387.67348543189</v>
+        <v>6640449.65539141</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79573.08532406311</v>
+        <v>7798467.238089303</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90681.36061607234</v>
+        <v>8941503.226845136</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102523.2717398804</v>
+        <v>9950744.534644773</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113366.6547545442</v>
+        <v>11107938.71832464</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124184.667243384</v>
+        <v>12275005.15767929</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134994.1350357412</v>
+        <v>13441165.85920686</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145803.6028280985</v>
+        <v>14607326.56073444</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157735.7367316735</v>
+        <v>15577044.05339617</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>172360.2234961952</v>
+        <v>16131537.93669158</v>
       </c>
     </row>
   </sheetData>
@@ -27037,10 +27037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>5.496897407574579e-11</v>
@@ -27058,7 +27058,7 @@
         <v>2.722892299255666e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>283.000000000029</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,13 +27147,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
